--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" tabRatio="446"/>
   </bookViews>
   <sheets>
-    <sheet name="Contract" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculate" sheetId="4" r:id="rId2"/>
-    <sheet name="OverRide" sheetId="3" r:id="rId3"/>
-    <sheet name="Error" sheetId="2" r:id="rId4"/>
+    <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
+    <sheet name="Error" sheetId="2" r:id="rId2"/>
+    <sheet name="Contract" sheetId="1" r:id="rId3"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId4"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>processed</t>
   </si>
@@ -77,6 +82,96 @@
   </si>
   <si>
     <t>FEBCGLZA</t>
+  </si>
+  <si>
+    <t>PricesheetCode</t>
+  </si>
+  <si>
+    <t>SNE</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>VehiclePrice</t>
+  </si>
+  <si>
+    <t>WBANE52010CK67774</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>MileageBand</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>ServiceDate</t>
+  </si>
+  <si>
+    <t>Surcharges</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Deductible</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>DealerException</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>DealerId</t>
+  </si>
+  <si>
+    <t>AgentException</t>
+  </si>
+  <si>
+    <t>12795</t>
+  </si>
+  <si>
+    <t>Selected_Plan</t>
+  </si>
+  <si>
+    <t>Plan_Type</t>
+  </si>
+  <si>
+    <t>All_Plans</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>35675</t>
   </si>
 </sst>
 </file>
@@ -92,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,9 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,45 +498,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -442,42 +672,41 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -485,38 +714,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -530,40 +759,85 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -27,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mohit Goel</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mohit Goel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter Either Pricesheet Code or Dealer ID, else price sheet code will be given priority</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>processed</t>
   </si>
@@ -156,15 +190,6 @@
     <t>12795</t>
   </si>
   <si>
-    <t>Selected_Plan</t>
-  </si>
-  <si>
-    <t>Plan_Type</t>
-  </si>
-  <si>
-    <t>All_Plans</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -172,19 +197,41 @@
   </si>
   <si>
     <t>35675</t>
+  </si>
+  <si>
+    <t>ALLPLANS</t>
+  </si>
+  <si>
+    <t>Agent_Plan_Type</t>
+  </si>
+  <si>
+    <t>Dealer_Plan_Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -497,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,16 +559,17 @@
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -544,43 +592,46 @@
         <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -600,28 +651,31 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
@@ -641,29 +695,33 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -121,9 +121,6 @@
     <t>PricesheetCode</t>
   </si>
   <si>
-    <t>SNE</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Dealer_Plan_Type</t>
+  </si>
+  <si>
+    <t>SNF</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,149 +574,149 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
-    <sheet name="Error" sheetId="2" r:id="rId2"/>
-    <sheet name="Contract" sheetId="1" r:id="rId3"/>
-    <sheet name="Calculate" sheetId="4" r:id="rId4"/>
-    <sheet name="OverRide" sheetId="3" r:id="rId5"/>
+    <sheet name="TC16_17" sheetId="6" r:id="rId2"/>
+    <sheet name="Error" sheetId="2" r:id="rId3"/>
+    <sheet name="Contract" sheetId="1" r:id="rId4"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId5"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>processed</t>
   </si>
@@ -206,6 +207,45 @@
   </si>
   <si>
     <t>SNF</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Coverage_Type</t>
+  </si>
+  <si>
+    <t>Mileage_Band</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Surcharge</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Deductibles</t>
+  </si>
+  <si>
+    <t>SNE</t>
+  </si>
+  <si>
+    <t>Powertrain</t>
+  </si>
+  <si>
+    <t>0-60</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>24/24</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -547,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,6 +767,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -768,7 +915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -812,7 +959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -856,7 +1003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" tabRatio="446"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" tabRatio="446" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>processed</t>
   </si>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,18 +813,7 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="F2" t="s">
         <v>34</v>
       </c>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>processed</t>
   </si>
@@ -221,12 +221,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Surcharge</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
     <t>Deductibles</t>
   </si>
   <si>
@@ -246,6 +240,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SELECTEDPLAN</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>SNZ</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,16 +729,16 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>44</v>
@@ -757,6 +760,98 @@
       </c>
       <c r="O3" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -767,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,60 +895,58 @@
         <v>51</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" tabRatio="446" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" tabRatio="446"/>
   </bookViews>
   <sheets>
     <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Mohit Goel:</t>
         </r>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter Either Pricesheet Code or Dealer ID, else price sheet code will be given priority</t>
@@ -267,14 +267,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" tabRatio="446"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3760" tabRatio="446"/>
   </bookViews>
   <sheets>
     <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>processed</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,10 +679,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -738,7 +738,7 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>44</v>
@@ -862,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,21 +920,15 @@
       <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -942,10 +936,15 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
         <v>34</v>
       </c>
     </row>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3760" tabRatio="446"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
+    <sheet name="TC_21To23_25To33" sheetId="5" r:id="rId1"/>
     <sheet name="TC16_17" sheetId="6" r:id="rId2"/>
     <sheet name="Error" sheetId="2" r:id="rId3"/>
     <sheet name="Contract" sheetId="1" r:id="rId4"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>processed</t>
   </si>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -719,23 +719,23 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+      <c r="A3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
@@ -763,40 +763,55 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>53</v>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -805,16 +820,16 @@
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -831,13 +846,13 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -851,6 +866,35 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -3,23 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3760" tabRatio="446"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260" tabRatio="446" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC_21To23_25To33" sheetId="5" r:id="rId1"/>
-    <sheet name="TC16_17" sheetId="6" r:id="rId2"/>
-    <sheet name="Error" sheetId="2" r:id="rId3"/>
-    <sheet name="Contract" sheetId="1" r:id="rId4"/>
-    <sheet name="Calculate" sheetId="4" r:id="rId5"/>
-    <sheet name="OverRide" sheetId="3" r:id="rId6"/>
+    <sheet name="TC_24" sheetId="7" r:id="rId2"/>
+    <sheet name="TC16_17" sheetId="6" r:id="rId3"/>
+    <sheet name="Error" sheetId="2" r:id="rId4"/>
+    <sheet name="Contract" sheetId="1" r:id="rId5"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId6"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>processed</t>
   </si>
@@ -249,6 +246,30 @@
   </si>
   <si>
     <t>SNZ</t>
+  </si>
+  <si>
+    <t>PriceSheetName</t>
+  </si>
+  <si>
+    <t>ClassificationListForTurbo</t>
+  </si>
+  <si>
+    <t>Turbo</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>ClassificationListForDiesel</t>
+  </si>
+  <si>
+    <t>ClonePriceSheet</t>
+  </si>
+  <si>
+    <t>FIV</t>
+  </si>
+  <si>
+    <t>ACL</t>
   </si>
 </sst>
 </file>
@@ -590,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -906,6 +927,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -997,7 +1073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1040,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1084,7 +1160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1128,7 +1204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3260" tabRatio="446" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="2380" tabRatio="446"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_21To23_25To33" sheetId="5" r:id="rId1"/>
+    <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
     <sheet name="TC_24" sheetId="7" r:id="rId2"/>
     <sheet name="TC16_17" sheetId="6" r:id="rId3"/>
     <sheet name="Error" sheetId="2" r:id="rId4"/>
@@ -16,7 +16,7 @@
     <sheet name="OverRide" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
+  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,7 +832,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
@@ -929,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/automation/Repository/Pricing.xlsx
+++ b/automation/Repository/Pricing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="2380" tabRatio="446"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="2920" tabRatio="446" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC_05_06" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="OverRide" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
+  <oleSize ref="A1:K8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>processed</t>
   </si>
@@ -137,9 +137,6 @@
     <t>VehiclePrice</t>
   </si>
   <si>
-    <t>WBANE52010CK67774</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -170,30 +167,12 @@
     <t>DealerException</t>
   </si>
   <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Accord</t>
-  </si>
-  <si>
     <t>DealerId</t>
   </si>
   <si>
     <t>AgentException</t>
   </si>
   <si>
-    <t>12795</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>35675</t>
-  </si>
-  <si>
     <t>ALLPLANS</t>
   </si>
   <si>
@@ -239,15 +218,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>SELECTEDPLAN</t>
-  </si>
-  <si>
-    <t>AAN</t>
-  </si>
-  <si>
-    <t>SNZ</t>
-  </si>
-  <si>
     <t>PriceSheetName</t>
   </si>
   <si>
@@ -270,6 +240,9 @@
   </si>
   <si>
     <t>ACL</t>
+  </si>
+  <si>
+    <t>ARC</t>
   </si>
 </sst>
 </file>
@@ -611,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +598,7 @@
     <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.6328125" bestFit="1" customWidth="1"/>
@@ -638,28 +611,28 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>19</v>
@@ -680,245 +653,138 @@
         <v>24</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -930,7 +796,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,36 +809,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -997,75 +863,75 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1208,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
